--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43009,6 +43009,41 @@
         <v>1888500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>770000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43044,6 +43044,41 @@
         <v>770000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>639900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43079,6 +43079,41 @@
         <v>639900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2087000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43114,6 +43114,41 @@
         <v>2087000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>422000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43149,6 +43149,41 @@
         <v>422000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1778900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43184,6 +43184,41 @@
         <v>1778900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43219,6 +43219,41 @@
         <v>5000000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1499000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43254,6 +43254,41 @@
         <v>1499000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>9756400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43289,6 +43289,41 @@
         <v>9756400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>143138600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43324,6 +43324,41 @@
         <v>143138600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>24152400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43359,6 +43359,41 @@
         <v>24152400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>29419200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43394,6 +43394,41 @@
         <v>29419200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>7444800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43429,6 +43429,76 @@
         <v>7444800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>24078700</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1073300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43499,6 +43499,76 @@
         <v>1073300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>39842700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>12218600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43569,6 +43569,41 @@
         <v>12218600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1388900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43604,6 +43604,41 @@
         <v>1388900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>4257800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43639,6 +43639,41 @@
         <v>4257800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>698000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43674,6 +43674,41 @@
         <v>698000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>6043700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43709,6 +43709,76 @@
         <v>6043700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1867300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1084000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43779,6 +43779,41 @@
         <v>1084000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1487600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43814,6 +43814,41 @@
         <v>1487600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>35340400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2371"/>
+  <dimension ref="A1:I2372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83399,6 +83399,41 @@
         <v>35340400</v>
       </c>
     </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2372" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2372" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2372" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2372" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2372" t="n">
+        <v>6200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2372"/>
+  <dimension ref="A1:I2373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83434,6 +83434,41 @@
         <v>6200000</v>
       </c>
     </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2373" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2373" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2373" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2373" t="n">
+        <v>5219000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2373"/>
+  <dimension ref="A1:I2374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83469,6 +83469,41 @@
         <v>5219000</v>
       </c>
     </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2374" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2374" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2374" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2374" t="n">
+        <v>791000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2374"/>
+  <dimension ref="A1:I2375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83504,6 +83504,41 @@
         <v>791000</v>
       </c>
     </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2375" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2375" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2375" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2375" t="n">
+        <v>6471600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2375"/>
+  <dimension ref="A1:I2376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83539,6 +83539,41 @@
         <v>6471600</v>
       </c>
     </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2376" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2376" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2376" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2376" t="n">
+        <v>805400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2376"/>
+  <dimension ref="A1:I2377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83574,6 +83574,41 @@
         <v>805400</v>
       </c>
     </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2377" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2377" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2377" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2377" t="n">
+        <v>429200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2377"/>
+  <dimension ref="A1:I2378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83609,6 +83609,41 @@
         <v>429200</v>
       </c>
     </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2378" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2378" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2378" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2378" t="n">
+        <v>55200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2378"/>
+  <dimension ref="A1:I2379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83644,6 +83644,41 @@
         <v>55200</v>
       </c>
     </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2379" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2379" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2379" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2379" t="n">
+        <v>2041100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2379"/>
+  <dimension ref="A1:I2380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83679,6 +83679,41 @@
         <v>2041100</v>
       </c>
     </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2380" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2380" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2380" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2380" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2380" t="n">
+        <v>1407500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2380"/>
+  <dimension ref="A1:I2381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83714,6 +83714,41 @@
         <v>1407500</v>
       </c>
     </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2381" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2381" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2381" t="n">
+        <v>1996600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2381"/>
+  <dimension ref="A1:I2382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83749,6 +83749,41 @@
         <v>1996600</v>
       </c>
     </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2382" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2382" t="n">
+        <v>33623000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2382"/>
+  <dimension ref="A1:I2383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83784,6 +83784,41 @@
         <v>33623000</v>
       </c>
     </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2383" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2383" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2383" t="n">
+        <v>1554600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2383"/>
+  <dimension ref="A1:I2384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83819,6 +83819,41 @@
         <v>1554600</v>
       </c>
     </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2384" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2384" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2384" t="n">
+        <v>904100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2384"/>
+  <dimension ref="A1:I2385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83854,6 +83854,41 @@
         <v>904100</v>
       </c>
     </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2385" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2385" t="n">
+        <v>29285500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2385"/>
+  <dimension ref="A1:I2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83889,6 +83889,41 @@
         <v>29285500</v>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2386" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2386" t="n">
+        <v>2140600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2898"/>
+  <dimension ref="A1:I2899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101844,6 +101844,41 @@
         <v>2140600</v>
       </c>
     </row>
+    <row r="2899">
+      <c r="A2899" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2899" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2899" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2899" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2899" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2899" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2899" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2899" t="n">
+        <v>1246500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2899"/>
+  <dimension ref="A1:I2900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101879,6 +101879,41 @@
         <v>1246500</v>
       </c>
     </row>
+    <row r="2900">
+      <c r="A2900" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2900" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2900" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2900" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2900" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2900" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2900" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2900" t="n">
+        <v>35657700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2900"/>
+  <dimension ref="A1:I2901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101914,6 +101914,41 @@
         <v>35657700</v>
       </c>
     </row>
+    <row r="2901">
+      <c r="A2901" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2901" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2901" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2901" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2901" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2901" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2901" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2901" t="n">
+        <v>1935800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2901"/>
+  <dimension ref="A1:I2902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101949,6 +101949,41 @@
         <v>1935800</v>
       </c>
     </row>
+    <row r="2902">
+      <c r="A2902" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2902" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2902" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2902" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2902" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2902" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2902" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2902" t="n">
+        <v>862100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2902"/>
+  <dimension ref="A1:I2903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101984,6 +101984,41 @@
         <v>862100</v>
       </c>
     </row>
+    <row r="2903">
+      <c r="A2903" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2903" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2903" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2903" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2903" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2903" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2903" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2903" t="n">
+        <v>741000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2903"/>
+  <dimension ref="A1:I2904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102019,6 +102019,41 @@
         <v>741000</v>
       </c>
     </row>
+    <row r="2904">
+      <c r="A2904" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2904" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2904" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2904" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2904" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2904" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2904" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2904" t="n">
+        <v>376000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2904"/>
+  <dimension ref="A1:I2905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102054,6 +102054,41 @@
         <v>376000</v>
       </c>
     </row>
+    <row r="2905">
+      <c r="A2905" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2905" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2905" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2905" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2905" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2905" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2905" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2905" t="n">
+        <v>2140500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2905"/>
+  <dimension ref="A1:I2906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102089,6 +102089,41 @@
         <v>2140500</v>
       </c>
     </row>
+    <row r="2906">
+      <c r="A2906" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2906" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2906" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2906" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2906" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2906" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2906" t="n">
+        <v>2430000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2906"/>
+  <dimension ref="A1:I2907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102124,6 +102124,41 @@
         <v>2430000</v>
       </c>
     </row>
+    <row r="2907">
+      <c r="A2907" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2907" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2907" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2907" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2907" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2907" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2907" t="n">
+        <v>1683000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2907"/>
+  <dimension ref="A1:I2908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102159,6 +102159,41 @@
         <v>1683000</v>
       </c>
     </row>
+    <row r="2908">
+      <c r="A2908" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2908" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2908" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2908" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2908" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2908" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2908" t="n">
+        <v>3940200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2908"/>
+  <dimension ref="A1:I2910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102194,6 +102194,76 @@
         <v>3940200</v>
       </c>
     </row>
+    <row r="2909">
+      <c r="A2909" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2909" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2909" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2909" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2909" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2909" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2909" t="n">
+        <v>2085300</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2910" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2910" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2910" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2910" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2910" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2910" t="n">
+        <v>728000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2910"/>
+  <dimension ref="A1:I2911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102264,6 +102264,41 @@
         <v>728000</v>
       </c>
     </row>
+    <row r="2911">
+      <c r="A2911" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2911" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2911" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2911" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2911" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2911" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2911" t="n">
+        <v>67136500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2911"/>
+  <dimension ref="A1:I2914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102299,6 +102299,111 @@
         <v>67136500</v>
       </c>
     </row>
+    <row r="2912">
+      <c r="A2912" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2912" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2912" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2912" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2912" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2912" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2912" t="n">
+        <v>4993400</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2913" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2913" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2913" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2913" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2913" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2913" t="n">
+        <v>11161400</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2914" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2914" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2914" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2914" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2914" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2914" t="n">
+        <v>887300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2914"/>
+  <dimension ref="A1:I2915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102404,6 +102404,41 @@
         <v>887300</v>
       </c>
     </row>
+    <row r="2915">
+      <c r="A2915" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2915" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2915" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2915" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2915" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2915" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2915" t="n">
+        <v>34920200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2915"/>
+  <dimension ref="A1:I2916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102439,6 +102439,41 @@
         <v>34920200</v>
       </c>
     </row>
+    <row r="2916">
+      <c r="A2916" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2916" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2916" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2916" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2916" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2916" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2916" t="n">
+        <v>390600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0107.xlsx
+++ b/data/0107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2916"/>
+  <dimension ref="A1:I2919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102474,6 +102474,111 @@
         <v>390600</v>
       </c>
     </row>
+    <row r="2917">
+      <c r="A2917" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2917" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2917" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2917" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2917" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2917" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2917" t="n">
+        <v>3019000</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2918" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2918" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2918" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2918" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2918" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2918" t="n">
+        <v>5646400</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="D2919" t="inlineStr">
+        <is>
+          <t>EDUSPEC</t>
+        </is>
+      </c>
+      <c r="E2919" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2919" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2919" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2919" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2919" t="n">
+        <v>1392600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
